--- a/nop-cli/demo/_vfs/app/demo/orm/demo.orm.xlsx
+++ b/nop-cli/demo/_vfs/app/demo/orm/demo.orm.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\batch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\app\demo\orm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647C26C-A6FE-4ADB-8326-9A8CCA5FBB48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772164C7-7D44-47D2-B04D-C28A72FD49D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
@@ -17,8 +17,9 @@
     <sheet name="配置" sheetId="3" r:id="rId2"/>
     <sheet name="域定义" sheetId="15" r:id="rId3"/>
     <sheet name="demo_card" sheetId="27" r:id="rId4"/>
-    <sheet name="demo_account" sheetId="21" r:id="rId5"/>
-    <sheet name="demo_transaction" sheetId="1" r:id="rId6"/>
+    <sheet name="demo_customer" sheetId="28" r:id="rId5"/>
+    <sheet name="demo_account" sheetId="21" r:id="rId6"/>
+    <sheet name="demo_transaction" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="244">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -468,14 +469,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参与者ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actor ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wfAction</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -552,14 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>礼品卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CYCLE_NUMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Customer Number</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -813,6 +798,214 @@
   </si>
   <si>
     <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo_customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIRST_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>First Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAST_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GENDER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gender</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DemoCustomer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>customerId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id Card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CARD_STYLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Card Style</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡片样式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_CARD_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Card ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主卡ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CYCLE_DAY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INTEGER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用额度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USED_CREDIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Used Credit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账单周期日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DUE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还款日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1060,22 +1253,67 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1093,71 +1331,26 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1696,7 +1889,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>24</v>
@@ -1721,7 +1914,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>73</v>
@@ -1732,7 +1925,7 @@
         <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>83</v>
@@ -1743,7 +1936,7 @@
         <v>82</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>74</v>
@@ -1754,7 +1947,7 @@
         <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>75</v>
@@ -1765,7 +1958,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>76</v>
@@ -1806,7 +1999,7 @@
     </row>
     <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="19" t="b">
         <v>1</v>
@@ -1906,7 +2099,7 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>28</v>
@@ -1922,10 +2115,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>28</v>
@@ -2180,7 +2373,7 @@
         <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2190,7 +2383,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>93</v>
@@ -2199,7 +2392,7 @@
         <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2209,7 +2402,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1" t="s">
@@ -2283,10 +2476,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CBED42-15B8-407C-B6D0-6579D6419739}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2307,130 +2500,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="I2" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2493,7 +2688,7 @@
         <v>86</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>102</v>
@@ -2527,14 +2722,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -2559,14 +2754,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -2586,29 +2781,29 @@
     </row>
     <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>109</v>
+        <v>194</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K11" s="7">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="L11" s="7"/>
       <c r="M11" s="9"/>
@@ -2618,29 +2813,29 @@
     </row>
     <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>132</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K12" s="7">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="L12" s="7"/>
       <c r="M12" s="9"/>
@@ -2650,31 +2845,33 @@
     </row>
     <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>136</v>
+        <v>187</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>28</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7">
-        <v>32</v>
-      </c>
-      <c r="L13" s="7"/>
+        <v>15</v>
+      </c>
+      <c r="L13" s="7">
+        <v>2</v>
+      </c>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
       <c r="O13" s="7"/>
@@ -2682,26 +2879,26 @@
     </row>
     <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="K14" s="7">
         <v>15</v>
@@ -2716,26 +2913,26 @@
     </row>
     <row r="15" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>184</v>
+        <v>232</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>186</v>
+        <v>230</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>188</v>
+        <v>152</v>
       </c>
       <c r="K15" s="7">
         <v>15</v>
@@ -2750,96 +2947,92 @@
     </row>
     <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>193</v>
+        <v>222</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
-        <v>187</v>
+        <v>224</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="K16" s="7"/>
+        <v>225</v>
+      </c>
+      <c r="K16" s="7">
+        <v>32</v>
+      </c>
       <c r="L16" s="7"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
       <c r="O16" s="7"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="E17" s="7"/>
       <c r="F17" s="9" t="s">
-        <v>37</v>
+        <v>217</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>87</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="H17" s="9"/>
       <c r="I17" s="7" t="s">
-        <v>27</v>
+        <v>219</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K17" s="7"/>
+        <v>220</v>
+      </c>
+      <c r="K17" s="7">
+        <v>10</v>
+      </c>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
       <c r="O17" s="7"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>39</v>
+        <v>188</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>40</v>
+        <v>189</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H18" s="9"/>
       <c r="I18" s="7" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="7">
-        <v>50</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -2848,28 +3041,30 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="F19" s="9" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
@@ -2880,22 +3075,22 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I20" s="7" t="s">
         <v>27</v>
@@ -2914,22 +3109,22 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>27</v>
@@ -2946,31 +3141,31 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>103</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>27</v>
+      </c>
       <c r="J22" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K22" s="7">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="L22" s="7"/>
       <c r="M22" s="9"/>
@@ -2979,16 +3174,30 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7">
+        <v>17</v>
+      </c>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
+      <c r="D23" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
+      <c r="F23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="9"/>
@@ -2996,224 +3205,543 @@
       <c r="O23" s="7"/>
       <c r="P23" s="1"/>
     </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="7">
+        <v>18</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="7">
+        <v>200</v>
+      </c>
+      <c r="L24" s="7"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="1"/>
+    </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="1"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-      <c r="K25" s="27"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="27"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="28"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="29">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="44">
         <v>1</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B28" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L28" s="34"/>
+      <c r="M28" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="32"/>
+      <c r="D29" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L29" s="34"/>
+      <c r="M29" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C30" s="32"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="32"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L31" s="34"/>
+      <c r="M31" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="39"/>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="45"/>
+      <c r="B33" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="46"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="34"/>
+      <c r="I33" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="36"/>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="45"/>
+      <c r="B34" s="8">
+        <v>1</v>
+      </c>
+      <c r="C34" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="2" t="s">
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="49"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="51"/>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="49"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="51"/>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="44">
+        <v>2</v>
+      </c>
+      <c r="B36" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="D36" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
-      <c r="K26" s="31" t="s">
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="32"/>
-      <c r="M26" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="44"/>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="33" t="s">
+      <c r="L36" s="34"/>
+      <c r="M36" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="30"/>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="45"/>
+      <c r="B37" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="2" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="31" t="s">
+      <c r="H37" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="42" t="s">
+      <c r="L37" s="34"/>
+      <c r="M37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="44"/>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
-      <c r="B28" s="33" t="s">
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="45"/>
+      <c r="B38" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="18" t="s">
+      <c r="C38" s="32"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="36"/>
-      <c r="J28" s="37"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="42"/>
-      <c r="N28" s="43"/>
-      <c r="O28" s="43"/>
-      <c r="P28" s="44"/>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="33" t="s">
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="30"/>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="45"/>
+      <c r="B39" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="34"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="31" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="32"/>
-      <c r="M29" s="42" t="s">
+      <c r="L39" s="34"/>
+      <c r="M39" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="N29" s="43"/>
-      <c r="O29" s="43"/>
-      <c r="P29" s="44"/>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
-      <c r="B30" s="38" t="s">
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="30"/>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="45"/>
+      <c r="B40" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="39"/>
-      <c r="O30" s="39"/>
-      <c r="P30" s="40"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="12" t="s">
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="39"/>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="45"/>
+      <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C41" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="16" t="s">
+      <c r="D41" s="46"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G31" s="31" t="s">
+      <c r="G41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H31" s="32"/>
-      <c r="I31" s="31" t="s">
+      <c r="H41" s="34"/>
+      <c r="I41" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J31" s="32"/>
-      <c r="K31" s="45"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="45"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="46"/>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="30"/>
-      <c r="B32" s="8">
+      <c r="J41" s="34"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="36"/>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A42" s="45"/>
+      <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="24"/>
-      <c r="O32" s="24"/>
-      <c r="P32" s="23"/>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="23"/>
+      <c r="C42" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="H42" s="49"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="51"/>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A43" s="45"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
+  <mergeCells count="84">
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A27:P27"/>
+    <mergeCell ref="A28:A35"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A6:P6"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
@@ -3227,42 +3755,6 @@
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="M26:P26"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="A25:P25"/>
-    <mergeCell ref="A26:A33"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:J29"/>
-    <mergeCell ref="B30:J30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3270,11 +3762,681 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
-  <dimension ref="A1:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7EEA4E-C43E-4DC9-A336-1661C29B31DF}">
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="A23" sqref="A23:XFD31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="5" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="8.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>2</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>3</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>4</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="7">
+        <v>100</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>6</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H13" s="9"/>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>9</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="7">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>10</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="7">
+        <v>11</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="7"/>
+      <c r="J20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>200</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
+  <dimension ref="A1:P32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32:H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3295,132 +4457,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="44"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="I2" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3483,13 +4645,13 @@
         <v>86</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>21</v>
@@ -3517,24 +4679,24 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>147</v>
+        <v>239</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>148</v>
+        <v>240</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>149</v>
+        <v>241</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
-        <v>137</v>
+        <v>242</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>28</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="L9" s="7"/>
       <c r="M9" s="9"/>
@@ -3549,24 +4711,24 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
-        <v>27</v>
+        <v>133</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>28</v>
       </c>
       <c r="K10" s="7">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="L10" s="7"/>
       <c r="M10" s="9"/>
@@ -3581,28 +4743,26 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
       <c r="K11" s="7">
-        <v>15</v>
-      </c>
-      <c r="L11" s="7">
-        <v>2</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="L11" s="7"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="O11" s="7"/>
@@ -3615,21 +4775,21 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>94</v>
+        <v>234</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -3638,28 +4798,28 @@
       <c r="O12" s="7"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>6</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
-        <v>187</v>
+        <v>231</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -3675,28 +4835,28 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>102</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>37</v>
+        <v>150</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>87</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
+        <v>152</v>
+      </c>
+      <c r="K14" s="7">
+        <v>15</v>
+      </c>
+      <c r="L14" s="7">
+        <v>2</v>
+      </c>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
       <c r="O14" s="7"/>
@@ -3709,57 +4869,51 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>88</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K15" s="7"/>
       <c r="L15" s="7"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
       <c r="O15" s="7"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>9</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="9" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="9" t="s">
-        <v>44</v>
+        <v>189</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>90</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H16" s="9"/>
       <c r="I16" s="7" t="s">
-        <v>27</v>
+        <v>183</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>46</v>
+        <v>191</v>
       </c>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
@@ -3775,27 +4929,27 @@
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="F17" s="9" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="7">
-        <v>50</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="K17" s="7"/>
       <c r="L17" s="7"/>
       <c r="M17" s="9"/>
       <c r="N17" s="9"/>
@@ -3809,25 +4963,27 @@
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="9" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I18" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="K18" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="K18" s="7">
+        <v>50</v>
+      </c>
       <c r="L18" s="7"/>
       <c r="M18" s="9"/>
       <c r="N18" s="9"/>
@@ -3835,16 +4991,30 @@
       <c r="P18" s="1"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
+      <c r="A19" s="7">
+        <v>12</v>
+      </c>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
-      <c r="D19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E19" s="7"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9"/>
+      <c r="F19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>46</v>
+      </c>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="9"/>
@@ -3853,27 +5023,363 @@
       <c r="P19" s="1"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="36"/>
-      <c r="P20" s="37"/>
+      <c r="A20" s="7">
+        <v>13</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="7">
+        <v>50</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="7">
+        <v>14</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="1"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="1"/>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="43"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="44">
+        <v>1</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="34"/>
+      <c r="M25" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="32"/>
+      <c r="D26" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H26" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L26" s="34"/>
+      <c r="M26" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="45"/>
+      <c r="B27" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="45"/>
+      <c r="B28" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="L28" s="34"/>
+      <c r="M28" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="45"/>
+      <c r="B29" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="39"/>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="45"/>
+      <c r="B30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="46"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="34"/>
+      <c r="I30" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="36"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="45"/>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="H31" s="49"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="45"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="50">
+    <mergeCell ref="A24:P24"/>
+    <mergeCell ref="A25:A32"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:P25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="M26:P26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
     <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A20:P20"/>
+    <mergeCell ref="A23:P23"/>
     <mergeCell ref="A5:P5"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:G1"/>
@@ -3892,12 +5398,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49753E9A-158A-4EB9-A449-F2590B12608A}">
   <dimension ref="A1:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3918,132 +5424,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="42"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="44"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="44"/>
+      <c r="I2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="44"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4106,16 +5612,16 @@
         <v>86</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>102</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="H8" s="9"/>
       <c r="I8" s="7" t="s">
@@ -4140,14 +5646,14 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
@@ -4172,14 +5678,14 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H10" s="9"/>
       <c r="I10" s="7" t="s">
@@ -4204,14 +5710,14 @@
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="7" t="s">
@@ -4236,21 +5742,21 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="K12" s="7">
         <v>10</v>
@@ -4268,21 +5774,21 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7">
         <v>15</v>
@@ -4302,21 +5808,21 @@
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E14" s="7"/>
       <c r="F14" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="7" t="s">
         <v>27</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -4332,21 +5838,21 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="K15" s="7"/>
       <c r="L15" s="7"/>
@@ -4548,432 +6054,474 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-      <c r="K23" s="27"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="27"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="28"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="29">
+      <c r="A24" s="44">
         <v>1</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="35"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="37"/>
-      <c r="K24" s="31" t="s">
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="32"/>
-      <c r="M24" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="N24" s="43"/>
-      <c r="O24" s="43"/>
-      <c r="P24" s="44"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="30"/>
-      <c r="B25" s="33" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="I25" s="36"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="31" t="s">
+      <c r="H25" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="32"/>
-      <c r="M25" s="42" t="s">
+      <c r="L25" s="34"/>
+      <c r="M25" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N25" s="43"/>
-      <c r="O25" s="43"/>
-      <c r="P25" s="44"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="30"/>
-      <c r="B26" s="33" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="34"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="37"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="42"/>
-      <c r="N26" s="43"/>
-      <c r="O26" s="43"/>
-      <c r="P26" s="44"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="30"/>
-      <c r="B27" s="33" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="36"/>
-      <c r="I27" s="36"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="31" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="32"/>
-      <c r="M27" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="N27" s="43"/>
-      <c r="O27" s="43"/>
-      <c r="P27" s="44"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="30"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="39"/>
       <c r="K28" s="38"/>
-      <c r="L28" s="40"/>
+      <c r="L28" s="39"/>
       <c r="M28" s="38"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="39"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="31" t="s">
+      <c r="C29" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="32"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="G29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="32"/>
-      <c r="I29" s="31" t="s">
+      <c r="H29" s="34"/>
+      <c r="I29" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="32"/>
-      <c r="K29" s="45"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="45"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="46"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="36"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="30"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="H30" s="21"/>
+      <c r="G30" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="H30" s="49"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="23"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="51"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="30"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="21"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="21"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="23"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="29">
+      <c r="A32" s="44">
         <v>2</v>
       </c>
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="34"/>
-      <c r="D32" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="E32" s="36"/>
-      <c r="F32" s="36"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="31" t="s">
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="32"/>
-      <c r="M32" s="42" t="s">
-        <v>182</v>
-      </c>
-      <c r="N32" s="43"/>
-      <c r="O32" s="43"/>
-      <c r="P32" s="44"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="30"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="34"/>
-      <c r="D33" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="E33" s="36"/>
-      <c r="F33" s="36"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="31" t="s">
+      <c r="H33" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="32"/>
-      <c r="M33" s="42" t="s">
+      <c r="L33" s="34"/>
+      <c r="M33" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N33" s="43"/>
-      <c r="O33" s="43"/>
-      <c r="P33" s="44"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="30"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="30"/>
-      <c r="B34" s="33" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="36"/>
-      <c r="I34" s="36"/>
-      <c r="J34" s="37"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="16"/>
       <c r="L34" s="17"/>
-      <c r="M34" s="42"/>
-      <c r="N34" s="43"/>
-      <c r="O34" s="43"/>
-      <c r="P34" s="44"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="30"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="30"/>
-      <c r="B35" s="33" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="34"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="36"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="36"/>
-      <c r="I35" s="36"/>
-      <c r="J35" s="37"/>
-      <c r="K35" s="31" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="32"/>
-      <c r="M35" s="42" t="s">
+      <c r="L35" s="34"/>
+      <c r="M35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="43"/>
-      <c r="O35" s="43"/>
-      <c r="P35" s="44"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="30"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="30"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="39"/>
       <c r="K36" s="38"/>
-      <c r="L36" s="40"/>
+      <c r="L36" s="39"/>
       <c r="M36" s="38"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="39"/>
-      <c r="P36" s="40"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="39"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="30"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="41"/>
-      <c r="E37" s="32"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="31" t="s">
+      <c r="G37" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="32"/>
-      <c r="I37" s="31" t="s">
+      <c r="H37" s="34"/>
+      <c r="I37" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="32"/>
-      <c r="K37" s="45"/>
-      <c r="L37" s="46"/>
-      <c r="M37" s="45"/>
-      <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
-      <c r="P37" s="46"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="36"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="30"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="8">
         <v>1</v>
       </c>
-      <c r="C38" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="25"/>
-      <c r="E38" s="21"/>
+      <c r="C38" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="H38" s="21"/>
+      <c r="G38" s="47" t="s">
+        <v>179</v>
+      </c>
+      <c r="H38" s="49"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="23"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="51"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="30"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="21"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="21"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="23"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
@@ -4990,61 +6538,19 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-cli/demo/_vfs/app/demo/orm/demo.orm.xlsx
+++ b/nop-cli/demo/_vfs/app/demo/orm/demo.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\app\demo\orm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{772164C7-7D44-47D2-B04D-C28A72FD49D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FC9FC-30A1-43EC-9BAE-12587DCF20D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="5" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="243">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -926,10 +926,6 @@
   </si>
   <si>
     <t>主卡ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1253,29 +1249,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1292,28 +1309,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1325,32 +1333,20 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2478,8 +2474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CBED42-15B8-407C-B6D0-6579D6419739}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2500,132 +2496,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2918,18 +2914,18 @@
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E15" s="7"/>
       <c r="F15" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H15" s="9"/>
       <c r="I15" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>152</v>
@@ -2962,11 +2958,9 @@
         <v>223</v>
       </c>
       <c r="H16" s="9"/>
-      <c r="I16" s="7" t="s">
+      <c r="I16" s="7"/>
+      <c r="J16" s="9" t="s">
         <v>224</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>225</v>
       </c>
       <c r="K16" s="7">
         <v>32</v>
@@ -3258,461 +3252,445 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
-      <c r="M27" s="42"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="42"/>
-      <c r="P27" s="43"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="46"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="46"/>
+      <c r="O27" s="46"/>
+      <c r="P27" s="47"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="44">
+      <c r="A28" s="43">
         <v>1</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="21" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
       <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="21"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="33" t="s">
+      <c r="H28" s="40"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="28" t="s">
+      <c r="L28" s="31"/>
+      <c r="M28" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="31" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="32"/>
-      <c r="D29" s="21" t="s">
+      <c r="C29" s="39"/>
+      <c r="D29" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="21" t="s">
+      <c r="H29" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I29" s="22"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="33" t="s">
+      <c r="I29" s="41"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="28" t="s">
+      <c r="L29" s="31"/>
+      <c r="M29" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="30"/>
+      <c r="N29" s="36"/>
+      <c r="O29" s="36"/>
+      <c r="P29" s="37"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
-      <c r="B30" s="31" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="32"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
       <c r="G30" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="23"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="16"/>
       <c r="L30" s="17"/>
-      <c r="M30" s="28"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="30"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="37"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="31" t="s">
+      <c r="A31" s="44"/>
+      <c r="B31" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="32"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="23"/>
-      <c r="K31" s="33" t="s">
+      <c r="C31" s="39"/>
+      <c r="D31" s="40"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="28" t="s">
+      <c r="L31" s="31"/>
+      <c r="M31" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="N31" s="29"/>
-      <c r="O31" s="29"/>
-      <c r="P31" s="30"/>
+      <c r="N31" s="36"/>
+      <c r="O31" s="36"/>
+      <c r="P31" s="37"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="38" t="s">
+      <c r="A32" s="44"/>
+      <c r="B32" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="39"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="39"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="28"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="33" t="s">
+      <c r="C33" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="46"/>
-      <c r="E33" s="34"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="34"/>
-      <c r="I33" s="33" t="s">
+      <c r="H33" s="31"/>
+      <c r="I33" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="34"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="37"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="36"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="32"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="34"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="33"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="47" t="s">
+      <c r="C34" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="47" t="s">
+      <c r="G34" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="49"/>
+      <c r="H34" s="25"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="50"/>
-      <c r="L34" s="51"/>
-      <c r="M34" s="50"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="51"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="22"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="47"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="23"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="49"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="25"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="50"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="50"/>
-      <c r="N35" s="52"/>
-      <c r="O35" s="52"/>
-      <c r="P35" s="51"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="20"/>
+      <c r="N35" s="21"/>
+      <c r="O35" s="21"/>
+      <c r="P35" s="22"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="44">
+      <c r="A36" s="43">
         <v>2</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="32"/>
-      <c r="D36" s="21" t="s">
+      <c r="C36" s="39"/>
+      <c r="D36" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
       <c r="G36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="33" t="s">
+      <c r="H36" s="40"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="34"/>
-      <c r="M36" s="28" t="s">
+      <c r="L36" s="31"/>
+      <c r="M36" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="N36" s="29"/>
-      <c r="O36" s="29"/>
-      <c r="P36" s="30"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="37"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
-      <c r="B37" s="31" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="32"/>
-      <c r="D37" s="21" t="s">
+      <c r="C37" s="39"/>
+      <c r="D37" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="21" t="s">
+      <c r="H37" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="I37" s="22"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="33" t="s">
+      <c r="I37" s="41"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="28" t="s">
+      <c r="L37" s="31"/>
+      <c r="M37" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="N37" s="29"/>
-      <c r="O37" s="29"/>
-      <c r="P37" s="30"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="36"/>
+      <c r="P37" s="37"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
-      <c r="B38" s="31" t="s">
+      <c r="A38" s="44"/>
+      <c r="B38" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="32"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
       <c r="G38" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="23"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="16"/>
       <c r="L38" s="17"/>
-      <c r="M38" s="28"/>
-      <c r="N38" s="29"/>
-      <c r="O38" s="29"/>
-      <c r="P38" s="30"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="36"/>
+      <c r="P38" s="37"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="31" t="s">
+      <c r="A39" s="44"/>
+      <c r="B39" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="32"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="33" t="s">
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="34"/>
-      <c r="M39" s="28" t="s">
+      <c r="L39" s="31"/>
+      <c r="M39" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="N39" s="29"/>
-      <c r="O39" s="29"/>
-      <c r="P39" s="30"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="37"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="45"/>
-      <c r="B40" s="38" t="s">
+      <c r="A40" s="44"/>
+      <c r="B40" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="39"/>
-      <c r="M40" s="38"/>
-      <c r="N40" s="40"/>
-      <c r="O40" s="40"/>
-      <c r="P40" s="39"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="27"/>
+      <c r="H40" s="27"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="28"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="28"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="45"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="33" t="s">
+      <c r="C41" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="46"/>
-      <c r="E41" s="34"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="34"/>
-      <c r="I41" s="33" t="s">
+      <c r="H41" s="31"/>
+      <c r="I41" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="37"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="36"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="33"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="45"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="47" t="s">
+      <c r="C42" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="49"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="47" t="s">
+      <c r="G42" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="H42" s="49"/>
+      <c r="H42" s="25"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="50"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="50"/>
-      <c r="N42" s="52"/>
-      <c r="O42" s="52"/>
-      <c r="P42" s="51"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="20"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="22"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="45"/>
-      <c r="B43" s="47"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="47"/>
-      <c r="H43" s="49"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="25"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="50"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="50"/>
-      <c r="N43" s="52"/>
-      <c r="O43" s="52"/>
-      <c r="P43" s="51"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="20"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="K28:L28"/>
@@ -3729,32 +3707,48 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3787,132 +3781,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="23"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="42"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4435,7 +4429,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000F6B3B-AB4F-4868-B1E5-A6FB88E99700}">
   <dimension ref="A1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G32" sqref="G32:H32"/>
     </sheetView>
   </sheetViews>
@@ -4457,132 +4451,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="52"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4679,21 +4673,21 @@
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>241</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>242</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>243</v>
       </c>
       <c r="K9" s="7">
         <v>32</v>
@@ -4775,21 +4769,21 @@
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H12" s="9"/>
       <c r="I12" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
@@ -4805,21 +4799,21 @@
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
       <c r="D13" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E13" s="7"/>
       <c r="F13" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>237</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="7" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
@@ -5107,241 +5101,275 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="23"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="41" t="s">
+      <c r="A24" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
-      <c r="M24" s="42"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="42"/>
-      <c r="P24" s="43"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="46"/>
+      <c r="O24" s="46"/>
+      <c r="P24" s="47"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="44">
+      <c r="A25" s="43">
         <v>1</v>
       </c>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="21"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="33" t="s">
+      <c r="H25" s="40"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="28" t="s">
+      <c r="L25" s="31"/>
+      <c r="M25" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="21" t="s">
+      <c r="C26" s="39"/>
+      <c r="D26" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="21" t="s">
+      <c r="H26" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="33" t="s">
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L26" s="34"/>
-      <c r="M26" s="28" t="s">
+      <c r="L26" s="31"/>
+      <c r="M26" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
       <c r="G27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="16"/>
       <c r="L27" s="17"/>
-      <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="33" t="s">
+      <c r="C28" s="39"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="34"/>
-      <c r="M28" s="28" t="s">
+      <c r="L28" s="31"/>
+      <c r="M28" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="30"/>
+      <c r="N28" s="36"/>
+      <c r="O28" s="36"/>
+      <c r="P28" s="37"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="39"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="27"/>
+      <c r="P29" s="28"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="34"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="34"/>
-      <c r="I30" s="33" t="s">
+      <c r="H30" s="31"/>
+      <c r="I30" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="34"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="36"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="32"/>
+      <c r="N30" s="34"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="33"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="47" t="s">
+      <c r="G31" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="H31" s="49"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="45"/>
-      <c r="B32" s="47"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="23"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="49"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="25"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="50"/>
-      <c r="L32" s="51"/>
-      <c r="M32" s="50"/>
-      <c r="N32" s="52"/>
-      <c r="O32" s="52"/>
-      <c r="P32" s="51"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="20"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -5358,40 +5386,6 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5424,132 +5418,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="28"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="30"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="37"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="25" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="35" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="30"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="37"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="49"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="30"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="37"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="49" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="27"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="52"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+      <c r="P6" s="48"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6054,474 +6048,432 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
-      <c r="M23" s="42"/>
-      <c r="N23" s="42"/>
-      <c r="O23" s="42"/>
-      <c r="P23" s="43"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="46"/>
+      <c r="M23" s="46"/>
+      <c r="N23" s="46"/>
+      <c r="O23" s="46"/>
+      <c r="P23" s="47"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
+      <c r="A24" s="43">
         <v>1</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="21" t="s">
+      <c r="C24" s="39"/>
+      <c r="D24" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="33" t="s">
+      <c r="H24" s="40"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="34"/>
-      <c r="M24" s="28" t="s">
+      <c r="L24" s="31"/>
+      <c r="M24" s="35" t="s">
         <v>138</v>
       </c>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="30"/>
+      <c r="N24" s="36"/>
+      <c r="O24" s="36"/>
+      <c r="P24" s="37"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
-      <c r="B25" s="31" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="21" t="s">
+      <c r="C25" s="39"/>
+      <c r="D25" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="21" t="s">
+      <c r="H25" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="22"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="33" t="s">
+      <c r="I25" s="41"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="28" t="s">
+      <c r="L25" s="31"/>
+      <c r="M25" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="30"/>
+      <c r="N25" s="36"/>
+      <c r="O25" s="36"/>
+      <c r="P25" s="37"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
-      <c r="B26" s="31" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
       <c r="G26" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="23"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="28"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="30"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="36"/>
+      <c r="O26" s="36"/>
+      <c r="P26" s="37"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="45"/>
-      <c r="B27" s="31" t="s">
+      <c r="A27" s="44"/>
+      <c r="B27" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="33" t="s">
+      <c r="C27" s="39"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="28" t="s">
+      <c r="L27" s="31"/>
+      <c r="M27" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="30"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="45"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="39"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="40"/>
-      <c r="O28" s="40"/>
-      <c r="P28" s="39"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="27"/>
+      <c r="O28" s="27"/>
+      <c r="P28" s="28"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="45"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="33" t="s">
+      <c r="C29" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="46"/>
-      <c r="E29" s="34"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="33" t="s">
+      <c r="H29" s="31"/>
+      <c r="I29" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="34"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="37"/>
-      <c r="O29" s="37"/>
-      <c r="P29" s="36"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="32"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="33"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="45"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="47" t="s">
+      <c r="G30" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="49"/>
+      <c r="H30" s="25"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="50"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="51"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="22"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="45"/>
-      <c r="B31" s="47"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="23"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="25"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="49"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="25"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="50"/>
-      <c r="L31" s="51"/>
-      <c r="M31" s="50"/>
-      <c r="N31" s="52"/>
-      <c r="O31" s="52"/>
-      <c r="P31" s="51"/>
+      <c r="K31" s="20"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="44">
+      <c r="A32" s="43">
         <v>2</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="21" t="s">
+      <c r="C32" s="39"/>
+      <c r="D32" s="40" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
       <c r="G32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="21"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="23"/>
-      <c r="K32" s="33" t="s">
+      <c r="H32" s="40"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="34"/>
-      <c r="M32" s="28" t="s">
+      <c r="L32" s="31"/>
+      <c r="M32" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="N32" s="29"/>
-      <c r="O32" s="29"/>
-      <c r="P32" s="30"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="36"/>
+      <c r="P32" s="37"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="45"/>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="44"/>
+      <c r="B33" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="32"/>
-      <c r="D33" s="21" t="s">
+      <c r="C33" s="39"/>
+      <c r="D33" s="40" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
       <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="21" t="s">
+      <c r="H33" s="40" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="33" t="s">
+      <c r="I33" s="41"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="28" t="s">
+      <c r="L33" s="31"/>
+      <c r="M33" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="N33" s="29"/>
-      <c r="O33" s="29"/>
-      <c r="P33" s="30"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="37"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="45"/>
-      <c r="B34" s="31" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="32"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
       <c r="G34" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="23"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="16"/>
       <c r="L34" s="17"/>
-      <c r="M34" s="28"/>
-      <c r="N34" s="29"/>
-      <c r="O34" s="29"/>
-      <c r="P34" s="30"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="36"/>
+      <c r="P34" s="37"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="45"/>
-      <c r="B35" s="31" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="32"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="33" t="s">
+      <c r="C35" s="39"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="28" t="s">
+      <c r="L35" s="31"/>
+      <c r="M35" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="29"/>
-      <c r="O35" s="29"/>
-      <c r="P35" s="30"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="36"/>
+      <c r="P35" s="37"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="45"/>
-      <c r="B36" s="38" t="s">
+      <c r="A36" s="44"/>
+      <c r="B36" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="39"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="40"/>
-      <c r="O36" s="40"/>
-      <c r="P36" s="39"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="27"/>
+      <c r="O36" s="27"/>
+      <c r="P36" s="28"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="45"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="33" t="s">
+      <c r="C37" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="46"/>
-      <c r="E37" s="34"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="34"/>
-      <c r="I37" s="33" t="s">
+      <c r="H37" s="31"/>
+      <c r="I37" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="34"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="37"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="36"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="32"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="34"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="33"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="8">
         <v>1</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="25"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="47" t="s">
+      <c r="G38" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="H38" s="49"/>
+      <c r="H38" s="25"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="50"/>
-      <c r="L38" s="51"/>
-      <c r="M38" s="50"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="51"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="20"/>
+      <c r="N38" s="21"/>
+      <c r="O38" s="21"/>
+      <c r="P38" s="22"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="45"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="49"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="49"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="25"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="50"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="50"/>
-      <c r="N39" s="52"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="51"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="20"/>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
@@ -6538,19 +6490,61 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="M26:P26"/>
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/nop-cli/demo/_vfs/app/demo/orm/demo.orm.xlsx
+++ b/nop-cli/demo/_vfs/app/demo/orm/demo.orm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\can\nop\nop-entropy\nop-cli\demo\_vfs\app\demo\orm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90FC9FC-30A1-43EC-9BAE-12587DCF20D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A73786BF-219C-4F4C-A5B7-492E1DEC47E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="7" xr2:uid="{BF79A538-0FD8-43E6-9CB3-F1057297980A}"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="2" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="demo_customer" sheetId="28" r:id="rId5"/>
     <sheet name="demo_account" sheetId="21" r:id="rId6"/>
     <sheet name="demo_transaction" sheetId="1" r:id="rId7"/>
+    <sheet name="demo_incoming_txn" sheetId="29" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="244">
   <si>
     <t>表名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1002,6 +1003,10 @@
   </si>
   <si>
     <t>VARCHAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>demo_incoming_txn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,50 +1254,29 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1309,19 +1293,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1333,20 +1326,32 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2474,8 +2479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74CBED42-15B8-407C-B6D0-6579D6419739}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W30" sqref="W30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y27" sqref="Y27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2496,132 +2501,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3252,445 +3257,461 @@
       <c r="P25" s="1"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46"/>
-      <c r="I27" s="46"/>
-      <c r="J27" s="46"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="47"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="43"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
+      <c r="A28" s="44">
         <v>1</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
       <c r="G28" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="29" t="s">
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="35" t="s">
+      <c r="L28" s="34"/>
+      <c r="M28" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="38" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="39"/>
-      <c r="D29" s="40" t="s">
+      <c r="C29" s="32"/>
+      <c r="D29" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
       <c r="G29" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-      <c r="K29" s="29" t="s">
+      <c r="I29" s="22"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="35" t="s">
+      <c r="L29" s="34"/>
+      <c r="M29" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="36"/>
-      <c r="O29" s="36"/>
-      <c r="P29" s="37"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="30"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="38" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="39"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
       <c r="G30" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="23"/>
       <c r="K30" s="16"/>
       <c r="L30" s="17"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="36"/>
-      <c r="P30" s="37"/>
+      <c r="M30" s="28"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="30"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="38" t="s">
+      <c r="A31" s="45"/>
+      <c r="B31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="39"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="29" t="s">
+      <c r="C31" s="32"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="35" t="s">
+      <c r="L31" s="34"/>
+      <c r="M31" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="N31" s="36"/>
-      <c r="O31" s="36"/>
-      <c r="P31" s="37"/>
+      <c r="N31" s="29"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="30"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="26" t="s">
+      <c r="A32" s="45"/>
+      <c r="B32" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="28"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="28"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="40"/>
+      <c r="O32" s="40"/>
+      <c r="P32" s="39"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C33" s="29" t="s">
+      <c r="C33" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="31"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="34"/>
       <c r="F33" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G33" s="29" t="s">
+      <c r="G33" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H33" s="31"/>
-      <c r="I33" s="29" t="s">
+      <c r="H33" s="34"/>
+      <c r="I33" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="31"/>
-      <c r="K33" s="32"/>
-      <c r="L33" s="33"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="33"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="37"/>
+      <c r="P33" s="36"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="8">
         <v>1</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="25"/>
+      <c r="D34" s="48"/>
+      <c r="E34" s="49"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="23" t="s">
+      <c r="G34" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="H34" s="25"/>
+      <c r="H34" s="49"/>
       <c r="I34" s="3"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="22"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="51"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="25"/>
+      <c r="A35" s="45"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="48"/>
+      <c r="D35" s="48"/>
+      <c r="E35" s="49"/>
       <c r="F35" s="3"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="25"/>
+      <c r="G35" s="47"/>
+      <c r="H35" s="49"/>
       <c r="I35" s="3"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="22"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="51"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="43">
+      <c r="A36" s="44">
         <v>2</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="39"/>
-      <c r="D36" s="40" t="s">
+      <c r="C36" s="32"/>
+      <c r="D36" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
       <c r="G36" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H36" s="40"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="29" t="s">
+      <c r="H36" s="21"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="23"/>
+      <c r="K36" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L36" s="31"/>
-      <c r="M36" s="35" t="s">
+      <c r="L36" s="34"/>
+      <c r="M36" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="N36" s="36"/>
-      <c r="O36" s="36"/>
-      <c r="P36" s="37"/>
+      <c r="N36" s="29"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="30"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="45"/>
+      <c r="B37" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="39"/>
-      <c r="D37" s="40" t="s">
+      <c r="C37" s="32"/>
+      <c r="D37" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
       <c r="G37" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="29" t="s">
+      <c r="I37" s="22"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="35" t="s">
+      <c r="L37" s="34"/>
+      <c r="M37" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N37" s="36"/>
-      <c r="O37" s="36"/>
-      <c r="P37" s="37"/>
+      <c r="N37" s="29"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="30"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="38" t="s">
+      <c r="A38" s="45"/>
+      <c r="B38" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="39"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
       <c r="G38" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="42"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="23"/>
       <c r="K38" s="16"/>
       <c r="L38" s="17"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="36"/>
-      <c r="P38" s="37"/>
+      <c r="M38" s="28"/>
+      <c r="N38" s="29"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="30"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="38" t="s">
+      <c r="A39" s="45"/>
+      <c r="B39" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="39"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="41"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="29" t="s">
+      <c r="C39" s="32"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="35" t="s">
+      <c r="L39" s="34"/>
+      <c r="M39" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="N39" s="36"/>
-      <c r="O39" s="36"/>
-      <c r="P39" s="37"/>
+      <c r="N39" s="29"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="30"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="26" t="s">
+      <c r="A40" s="45"/>
+      <c r="B40" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="28"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="27"/>
-      <c r="O40" s="27"/>
-      <c r="P40" s="28"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="39"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="40"/>
+      <c r="P40" s="39"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
+      <c r="A41" s="45"/>
       <c r="B41" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="29" t="s">
+      <c r="C41" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="30"/>
-      <c r="E41" s="31"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G41" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="31"/>
-      <c r="I41" s="29" t="s">
+      <c r="H41" s="34"/>
+      <c r="I41" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J41" s="31"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="33"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="34"/>
-      <c r="O41" s="34"/>
-      <c r="P41" s="33"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="37"/>
+      <c r="P41" s="36"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="25"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="49"/>
       <c r="F42" s="3"/>
-      <c r="G42" s="23" t="s">
+      <c r="G42" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="H42" s="25"/>
+      <c r="H42" s="49"/>
       <c r="I42" s="3"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="22"/>
+      <c r="K42" s="50"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="50"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="51"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="25"/>
+      <c r="A43" s="45"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="48"/>
+      <c r="D43" s="48"/>
+      <c r="E43" s="49"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="25"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="49"/>
       <c r="I43" s="3"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="22"/>
+      <c r="K43" s="50"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="50"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M42:P42"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M40:P40"/>
+    <mergeCell ref="C41:E41"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="I41:J41"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="M41:P41"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:J39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="A36:A43"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B40:J40"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
     <mergeCell ref="A27:P27"/>
     <mergeCell ref="A28:A35"/>
     <mergeCell ref="K28:L28"/>
@@ -3707,48 +3728,32 @@
     <mergeCell ref="C33:E33"/>
     <mergeCell ref="I33:J33"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="A36:A43"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B40:J40"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:J39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
-    <mergeCell ref="M40:P40"/>
-    <mergeCell ref="C41:E41"/>
-    <mergeCell ref="G41:H41"/>
-    <mergeCell ref="I41:J41"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="M41:P41"/>
-    <mergeCell ref="M42:P42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:P43"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3781,132 +3786,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="40"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="42"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="23"/>
       <c r="N1" s="15"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4451,132 +4456,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="52"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="52"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="52"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -5101,275 +5106,241 @@
       <c r="P22" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="40"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="41"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="41"/>
-      <c r="O23" s="41"/>
-      <c r="P23" s="42"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="23"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
-      <c r="M24" s="46"/>
-      <c r="N24" s="46"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="47"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="43"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
+      <c r="A25" s="44">
         <v>1</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="21" t="s">
         <v>208</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="29" t="s">
+      <c r="H25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="35" t="s">
+      <c r="L25" s="34"/>
+      <c r="M25" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40" t="s">
+      <c r="C26" s="32"/>
+      <c r="D26" s="21" t="s">
         <v>196</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="21" t="s">
         <v>198</v>
       </c>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
-      <c r="K26" s="29" t="s">
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L26" s="31"/>
-      <c r="M26" s="35" t="s">
+      <c r="L26" s="34"/>
+      <c r="M26" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
       <c r="G27" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
       <c r="K27" s="16"/>
       <c r="L27" s="17"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="38" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="39"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="K28" s="29" t="s">
+      <c r="C28" s="32"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L28" s="31"/>
-      <c r="M28" s="35" t="s">
+      <c r="L28" s="34"/>
+      <c r="M28" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="N28" s="36"/>
-      <c r="O28" s="36"/>
-      <c r="P28" s="37"/>
+      <c r="N28" s="29"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="30"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="26" t="s">
+      <c r="A29" s="45"/>
+      <c r="B29" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="27"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="27"/>
-      <c r="P29" s="28"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="40"/>
+      <c r="O29" s="40"/>
+      <c r="P29" s="39"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="31"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="34"/>
       <c r="F30" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G30" s="29" t="s">
+      <c r="G30" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="31"/>
-      <c r="I30" s="29" t="s">
+      <c r="H30" s="34"/>
+      <c r="I30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J30" s="31"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="33"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="36"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="8">
         <v>1</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="23" t="s">
+      <c r="G31" s="47" t="s">
         <v>210</v>
       </c>
-      <c r="H31" s="25"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="25"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="25"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="49"/>
       <c r="I32" s="3"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="22"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="A23:P23"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D4:M4"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="C31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
     <mergeCell ref="A24:P24"/>
     <mergeCell ref="A25:A32"/>
     <mergeCell ref="B25:C25"/>
@@ -5386,6 +5357,40 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A23:P23"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5397,7 +5402,7 @@
   <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T24" sqref="T24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5418,132 +5423,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
       <c r="H1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="35"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="37"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
       <c r="N1" s="14"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50" t="s">
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
       <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="37"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="14"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
       <c r="H3" s="5"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="37"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="14"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="13"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="42"/>
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -6048,432 +6053,474 @@
       <c r="P21" s="1"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="45" t="s">
+      <c r="A23" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="46"/>
-      <c r="J23" s="46"/>
-      <c r="K23" s="46"/>
-      <c r="L23" s="46"/>
-      <c r="M23" s="46"/>
-      <c r="N23" s="46"/>
-      <c r="O23" s="46"/>
-      <c r="P23" s="47"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="43"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
+      <c r="A24" s="44">
         <v>1</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="39"/>
-      <c r="D24" s="40" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
       <c r="G24" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H24" s="40"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="29" t="s">
+      <c r="H24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L24" s="31"/>
-      <c r="M24" s="35" t="s">
+      <c r="L24" s="34"/>
+      <c r="M24" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="36"/>
-      <c r="P24" s="37"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="30"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="38" t="s">
+      <c r="A25" s="45"/>
+      <c r="B25" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="40" t="s">
+      <c r="C25" s="32"/>
+      <c r="D25" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
       <c r="G25" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="29" t="s">
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="35" t="s">
+      <c r="L25" s="34"/>
+      <c r="M25" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N25" s="36"/>
-      <c r="O25" s="36"/>
-      <c r="P25" s="37"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="30"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
-      <c r="B26" s="38" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C26" s="39"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
       <c r="K26" s="16"/>
       <c r="L26" s="17"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="36"/>
-      <c r="P26" s="37"/>
+      <c r="M26" s="28"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="38" t="s">
+      <c r="A27" s="45"/>
+      <c r="B27" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="39"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="29" t="s">
+      <c r="C27" s="32"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="35" t="s">
+      <c r="L27" s="34"/>
+      <c r="M27" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="N27" s="36"/>
-      <c r="O27" s="36"/>
-      <c r="P27" s="37"/>
+      <c r="N27" s="29"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="30"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="26" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="27"/>
-      <c r="O28" s="27"/>
-      <c r="P28" s="28"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="38"/>
+      <c r="L28" s="39"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="39"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="29" t="s">
+      <c r="C29" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="31"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="34"/>
       <c r="F29" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G29" s="29" t="s">
+      <c r="G29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H29" s="31"/>
-      <c r="I29" s="29" t="s">
+      <c r="H29" s="34"/>
+      <c r="I29" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J29" s="31"/>
-      <c r="K29" s="32"/>
-      <c r="L29" s="33"/>
-      <c r="M29" s="32"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="33"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="36"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="36"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="8">
         <v>1</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="49"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="H30" s="25"/>
+      <c r="H30" s="49"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="22"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="50"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="51"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="25"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="48"/>
+      <c r="D31" s="48"/>
+      <c r="E31" s="49"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="25"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="49"/>
       <c r="I31" s="3"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="22"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="52"/>
+      <c r="O31" s="52"/>
+      <c r="P31" s="51"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="43">
+      <c r="A32" s="44">
         <v>2</v>
       </c>
-      <c r="B32" s="38" t="s">
+      <c r="B32" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="39"/>
-      <c r="D32" s="40" t="s">
+      <c r="C32" s="32"/>
+      <c r="D32" s="21" t="s">
         <v>175</v>
       </c>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H32" s="40"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="29" t="s">
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="L32" s="31"/>
-      <c r="M32" s="35" t="s">
+      <c r="L32" s="34"/>
+      <c r="M32" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="N32" s="36"/>
-      <c r="O32" s="36"/>
-      <c r="P32" s="37"/>
+      <c r="N32" s="29"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="30"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="38" t="s">
+      <c r="A33" s="45"/>
+      <c r="B33" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="40" t="s">
+      <c r="C33" s="32"/>
+      <c r="D33" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="21" t="s">
         <v>177</v>
       </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="29" t="s">
+      <c r="I33" s="22"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="35" t="s">
+      <c r="L33" s="34"/>
+      <c r="M33" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="N33" s="36"/>
-      <c r="O33" s="36"/>
-      <c r="P33" s="37"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="30"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="38" t="s">
+      <c r="A34" s="45"/>
+      <c r="B34" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="C34" s="39"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="42"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
       <c r="K34" s="16"/>
       <c r="L34" s="17"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="36"/>
-      <c r="P34" s="37"/>
+      <c r="M34" s="28"/>
+      <c r="N34" s="29"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="30"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="38" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="39"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="41"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="29" t="s">
+      <c r="C35" s="32"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="23"/>
+      <c r="K35" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="35" t="s">
+      <c r="L35" s="34"/>
+      <c r="M35" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="N35" s="36"/>
-      <c r="O35" s="36"/>
-      <c r="P35" s="37"/>
+      <c r="N35" s="29"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="30"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="26" t="s">
+      <c r="A36" s="45"/>
+      <c r="B36" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="28"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="27"/>
-      <c r="O36" s="27"/>
-      <c r="P36" s="28"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="40"/>
+      <c r="O36" s="40"/>
+      <c r="P36" s="39"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C37" s="29" t="s">
+      <c r="C37" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="31"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G37" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="H37" s="31"/>
-      <c r="I37" s="29" t="s">
+      <c r="H37" s="34"/>
+      <c r="I37" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="J37" s="31"/>
-      <c r="K37" s="32"/>
-      <c r="L37" s="33"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="33"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="36"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="37"/>
+      <c r="P37" s="36"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="8">
         <v>1</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="25"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="49"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="23" t="s">
+      <c r="G38" s="47" t="s">
         <v>179</v>
       </c>
-      <c r="H38" s="25"/>
+      <c r="H38" s="49"/>
       <c r="I38" s="3"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
-      <c r="O38" s="21"/>
-      <c r="P38" s="22"/>
+      <c r="K38" s="50"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="50"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="51"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="25"/>
+      <c r="A39" s="45"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="48"/>
+      <c r="D39" s="48"/>
+      <c r="E39" s="49"/>
       <c r="F39" s="3"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="25"/>
+      <c r="G39" s="47"/>
+      <c r="H39" s="49"/>
       <c r="I39" s="3"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="22"/>
+      <c r="K39" s="50"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="50"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="A6:P6"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A5:P5"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="M38:P38"/>
+    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="M36:P36"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="M37:P37"/>
+    <mergeCell ref="M34:P34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:J35"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="M35:P35"/>
+    <mergeCell ref="M32:P32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="M33:P33"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B36:J36"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:P30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:P31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:P29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:P27"/>
+    <mergeCell ref="B28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:P28"/>
     <mergeCell ref="A23:P23"/>
     <mergeCell ref="A24:A31"/>
     <mergeCell ref="B24:C24"/>
@@ -6490,61 +6537,601 @@
     <mergeCell ref="D26:F26"/>
     <mergeCell ref="H26:J26"/>
     <mergeCell ref="M26:P26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:P27"/>
-    <mergeCell ref="B28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:P28"/>
-    <mergeCell ref="C29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:P29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:P30"/>
-    <mergeCell ref="B31:E31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="M31:P31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="B36:J36"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="M32:P32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="M33:P33"/>
-    <mergeCell ref="M34:P34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:J35"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="M35:P35"/>
-    <mergeCell ref="M36:P36"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="M37:P37"/>
-    <mergeCell ref="M38:P38"/>
-    <mergeCell ref="B39:E39"/>
-    <mergeCell ref="G39:H39"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="M39:P39"/>
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="D4:M4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78FD1DE-E4E7-405B-AEE9-4D4019F72124}">
+  <dimension ref="A1:P18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="4.44140625" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="4.88671875" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="9" max="9" width="4.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="6.109375" customWidth="1"/>
+    <col min="12" max="12" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="9" customWidth="1"/>
+    <col min="14" max="14" width="6.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="21"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>1</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="7">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="1"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>4</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="7">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="7">
+        <v>5</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="H10" s="9"/>
+      <c r="I10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="7">
+        <v>10</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="1"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="7">
+        <v>6</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H11" s="9"/>
+      <c r="I11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K11" s="7">
+        <v>15</v>
+      </c>
+      <c r="L11" s="7">
+        <v>2</v>
+      </c>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="1"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="7">
+        <v>7</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" s="9"/>
+      <c r="I12" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="7">
+        <v>10</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="7">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="7">
+        <v>11</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="7">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="7">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="7">
+        <v>13</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A6:P6"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="D4:M4"/>
+    <mergeCell ref="A5:P5"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:G1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
